--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264320.3671374589</v>
+        <v>261881.8940377112</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>39.34258432398082</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>243.117923430928</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>365.5629992635216</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>87.93270968653133</v>
       </c>
       <c r="T4" t="n">
-        <v>28.46932083023325</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>302.9446243547911</v>
       </c>
       <c r="D5" t="n">
-        <v>38.54517889543071</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>25.42854495127488</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.8126782397849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.52676208877594</v>
       </c>
       <c r="E8" t="n">
-        <v>187.1115933738219</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.2940449386022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>155.5598945400495</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272926</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3650462979063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>23.41986852520603</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631857025</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.7871326503951</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.9220940686583</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986288</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>34.45703212904596</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>167.1567583758957</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>99.76189317295189</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>98.20549876776153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.019807611472022</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>22.44547853568552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>45.36631724422193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>247.2924896597629</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.807527238424</v>
+        <v>1378.920980251015</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.807527238424</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.541828631673</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>846.753576033429</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7676712438214</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278357</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302545</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4401,13 +4401,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T4" t="n">
-        <v>610.6137746750309</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U4" t="n">
-        <v>610.6137746750309</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>355.929286469144</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.833343223197</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
         <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,16 +4650,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122982</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W7" t="n">
-        <v>666.2025176122982</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X7" t="n">
-        <v>666.2025176122982</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1808.800296392464</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1439.837779452052</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1081.572080845302</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392464</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>700.4565031831854</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>700.4565031831854</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V10" t="n">
-        <v>700.4565031831854</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>700.4565031831854</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>700.4565031831854</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.6639240396553</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.37303605497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>803.2707707770319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408953</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.811296842985</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.903366400063</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,16 +5595,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511915</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2412.158000621628</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2123.082773965826</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1868.398285759939</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722979</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.991564824961</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.198985681431</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2163.338660171577</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1874.263433515775</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1619.578945309888</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1102.17222437491</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>881.3796452313798</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,25 +6926,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>870.3164745246296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>720.1998351122938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>572.2867415299007</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>425.3967940319903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>258.2006947468703</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>116.4888635890684</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.687142285114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>343.3912573394998</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>45.3587263899318</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>247.091083670217</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22641,10 +22641,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="T4" t="n">
-        <v>191.079628445936</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>92.15795203868473</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.1956044930063</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187378</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.66255928343645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>182.9484181982423</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>119.3662399606953</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>117.6435571543364</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4141550350971</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>58.82035778288001</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>206.7713260796061</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.89198472948121</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>970429.7387832764</v>
+        <v>970429.7387832763</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1063319.290792292</v>
+        <v>1063319.290792291</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1063319.290792292</v>
+        <v>1063319.290792291</v>
       </c>
     </row>
     <row r="13">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019034</v>
+        <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605026</v>
@@ -26347,13 +26347,13 @@
         <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="O2" t="n">
-        <v>363215.9698605028</v>
-      </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138743</v>
+        <v>51041.86039138742</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26442,7 +26442,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26454,7 +26454,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1151802.56017847</v>
+        <v>-1151988.953567009</v>
       </c>
       <c r="C6" t="n">
         <v>167938.1117734817</v>
       </c>
       <c r="D6" t="n">
-        <v>167938.1117734819</v>
+        <v>167938.1117734817</v>
       </c>
       <c r="E6" t="n">
-        <v>-78145.71781262671</v>
+        <v>-78180.45573806256</v>
       </c>
       <c r="F6" t="n">
-        <v>247266.7439947281</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="G6" t="n">
-        <v>247266.7439947284</v>
+        <v>247232.0060692923</v>
       </c>
       <c r="H6" t="n">
-        <v>247266.7439947283</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="I6" t="n">
-        <v>247266.7439947282</v>
+        <v>247232.0060692923</v>
       </c>
       <c r="J6" t="n">
-        <v>29735.54159745071</v>
+        <v>29700.80367201498</v>
       </c>
       <c r="K6" t="n">
-        <v>247266.7439947283</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="L6" t="n">
-        <v>247266.7439947281</v>
+        <v>247232.0060692924</v>
       </c>
       <c r="M6" t="n">
-        <v>162211.7160592164</v>
+        <v>162176.9781337806</v>
       </c>
       <c r="N6" t="n">
-        <v>247266.7439947281</v>
+        <v>247232.0060692923</v>
       </c>
       <c r="O6" t="n">
-        <v>247266.7439947283</v>
+        <v>247232.0060692924</v>
       </c>
       <c r="P6" t="n">
-        <v>247266.7439947283</v>
+        <v>247232.0060692924</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>122.1549683400795</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>47.51668071710344</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,23 +27613,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>62.32826741621648</v>
       </c>
       <c r="D5" t="n">
-        <v>316.1378627252523</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>226.7090983725531</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.77197511230986</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.156279531907</v>
       </c>
       <c r="E8" t="n">
-        <v>194.8187766984398</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>90.25490433756701</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>130.6519436655634</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.574869756309683e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>169.268784767334</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>251.886104915025</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>669.466988500007</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>314.4610577451606</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531573</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>120.5443928316917</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>526.8707440555626</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>174.4792836591391</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
